--- a/hexabenzocoronene/hexabenzocorornene_faraday_discussion.xlsx
+++ b/hexabenzocoronene/hexabenzocorornene_faraday_discussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnab/arnab/workspace/2024_faraday_discussions_data/hexabenzocoronene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3CBF56-39D9-C44B-B92B-9F0F07DE9CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1892A9FA-856A-D340-A8E6-184BEDC51004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="760" windowWidth="29720" windowHeight="17920" xr2:uid="{FEE3860C-D3F4-C840-B97D-F5B8812B6184}"/>
   </bookViews>

--- a/hexabenzocoronene/hexabenzocorornene_faraday_discussion.xlsx
+++ b/hexabenzocoronene/hexabenzocorornene_faraday_discussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnab/arnab/workspace/2024_faraday_discussions_data/hexabenzocoronene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1892A9FA-856A-D340-A8E6-184BEDC51004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB7697E-84B4-114A-8F69-F61EB103C1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="760" windowWidth="29720" windowHeight="17920" xr2:uid="{FEE3860C-D3F4-C840-B97D-F5B8812B6184}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>cc-pVDZ</t>
   </si>
@@ -105,25 +105,7 @@
     <t>Extrapolated E</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>PT2 correction</t>
-  </si>
-  <si>
-    <t>&lt;N&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Sz&gt;</t>
-  </si>
-  <si>
-    <t>&lt;S2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;H&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Hcmf&gt;</t>
   </si>
   <si>
     <t>var</t>
@@ -1211,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E9B32-CF8A-A644-91BD-4F75E173F94D}">
   <dimension ref="A1:AH234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1237,6 +1219,8 @@
     <col min="18" max="18" width="38.1640625" customWidth="1"/>
     <col min="19" max="19" width="33" customWidth="1"/>
     <col min="20" max="20" width="33.33203125" customWidth="1"/>
+    <col min="21" max="21" width="45" customWidth="1"/>
+    <col min="22" max="22" width="23" customWidth="1"/>
     <col min="23" max="23" width="27.6640625" customWidth="1"/>
     <col min="24" max="24" width="25" customWidth="1"/>
     <col min="25" max="25" width="30" customWidth="1"/>
@@ -1331,32 +1315,23 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="147"/>
+      <c r="T4" s="147"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="AA4" s="153"/>
-      <c r="AB4" s="154">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="154">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="154">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="154">
-        <v>4</v>
-      </c>
-      <c r="AF4" s="154">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="154">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="154">
-        <v>7</v>
-      </c>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
     </row>
     <row r="5" spans="1:34" ht="34" thickBot="1">
       <c r="A5" s="13" t="s">
@@ -1384,43 +1359,32 @@
         <v>13</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="1"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="150"/>
       <c r="X5" s="150"/>
       <c r="Y5" s="151"/>
-      <c r="AA5" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="149">
-        <v>6.0000432500000001</v>
-      </c>
-      <c r="AC5" s="149">
-        <v>6.0000585400000004</v>
-      </c>
-      <c r="AD5" s="149">
-        <v>6.0000649199999998</v>
-      </c>
-      <c r="AE5" s="149">
-        <v>6.0000470000000004</v>
-      </c>
-      <c r="AF5" s="149">
-        <v>6.0000588300000004</v>
-      </c>
-      <c r="AG5" s="149">
-        <v>6.00005963</v>
-      </c>
-      <c r="AH5" s="149">
-        <v>5.9996678299999999</v>
-      </c>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="149"/>
+      <c r="AE5" s="149"/>
+      <c r="AF5" s="149"/>
+      <c r="AG5" s="149"/>
+      <c r="AH5" s="149"/>
     </row>
     <row r="6" spans="1:34" ht="32">
       <c r="A6" s="19">
@@ -1438,37 +1402,25 @@
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
       <c r="K6" s="23"/>
-      <c r="S6" s="1"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
       <c r="W6" s="150"/>
       <c r="X6" s="150"/>
       <c r="Y6" s="152"/>
-      <c r="AA6" s="149" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB6" s="149">
-        <v>2.08E-6</v>
-      </c>
-      <c r="AC6" s="149">
-        <v>6.1E-6</v>
-      </c>
-      <c r="AD6" s="149">
-        <v>-3.1E-7</v>
-      </c>
-      <c r="AE6" s="149">
-        <v>5.48E-6</v>
-      </c>
-      <c r="AF6" s="149">
-        <v>7.3300000000000001E-6</v>
-      </c>
-      <c r="AG6" s="149">
-        <v>4.4999999999999998E-7</v>
-      </c>
-      <c r="AH6" s="149">
-        <v>-2.1129999999999999E-5</v>
-      </c>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
     </row>
     <row r="7" spans="1:34" ht="32">
       <c r="A7" s="24">
@@ -1499,37 +1451,25 @@
       <c r="I7" s="29"/>
       <c r="J7" s="30"/>
       <c r="K7" s="31"/>
-      <c r="S7" s="1"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="147"/>
+      <c r="S7" s="147"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
       <c r="W7" s="150"/>
       <c r="X7" s="150"/>
       <c r="Y7" s="152"/>
-      <c r="AA7" s="149" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB7" s="149">
-        <v>3.8133779999999999E-2</v>
-      </c>
-      <c r="AC7" s="149">
-        <v>3.8136339999999998E-2</v>
-      </c>
-      <c r="AD7" s="149">
-        <v>3.8366869999999997E-2</v>
-      </c>
-      <c r="AE7" s="149">
-        <v>3.81255E-2</v>
-      </c>
-      <c r="AF7" s="149">
-        <v>3.8141479999999998E-2</v>
-      </c>
-      <c r="AG7" s="149">
-        <v>3.8380020000000001E-2</v>
-      </c>
-      <c r="AH7" s="149">
-        <v>8.5687390000000002E-2</v>
-      </c>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
     </row>
     <row r="8" spans="1:34" ht="32">
       <c r="A8" s="32">
@@ -1559,37 +1499,25 @@
       <c r="I8" s="29"/>
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
-      <c r="S8" s="1"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="147"/>
+      <c r="S8" s="147"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
       <c r="W8" s="150"/>
       <c r="X8" s="150"/>
       <c r="Y8" s="152"/>
-      <c r="AA8" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="149">
-        <v>-27.75210843</v>
-      </c>
-      <c r="AC8" s="149">
-        <v>-27.752177280000002</v>
-      </c>
-      <c r="AD8" s="149">
-        <v>-27.75198722</v>
-      </c>
-      <c r="AE8" s="149">
-        <v>-27.75212509</v>
-      </c>
-      <c r="AF8" s="149">
-        <v>-27.752173519999999</v>
-      </c>
-      <c r="AG8" s="149">
-        <v>-27.75195523</v>
-      </c>
-      <c r="AH8" s="149">
-        <v>-34.042855969999998</v>
-      </c>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
     </row>
     <row r="9" spans="1:34" ht="33" thickBot="1">
       <c r="A9" s="33">
@@ -1619,49 +1547,45 @@
       <c r="I9" s="38"/>
       <c r="J9" s="39"/>
       <c r="K9" s="40"/>
-      <c r="S9" s="1"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
       <c r="W9" s="150"/>
       <c r="X9" s="150"/>
       <c r="Y9" s="152"/>
-      <c r="AA9" s="149" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB9" s="149">
-        <v>-6.3503054199999998</v>
-      </c>
-      <c r="AC9" s="149">
-        <v>-6.3503062999999997</v>
-      </c>
-      <c r="AD9" s="149">
-        <v>-6.3502019399999998</v>
-      </c>
-      <c r="AE9" s="149">
-        <v>-6.3503078000000004</v>
-      </c>
-      <c r="AF9" s="149">
-        <v>-6.35030216</v>
-      </c>
-      <c r="AG9" s="149">
-        <v>-6.3501975499999999</v>
-      </c>
-      <c r="AH9" s="149">
-        <v>-6.23124638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="27">
-      <c r="S10" s="1"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="149"/>
+      <c r="AH9" s="149"/>
+    </row>
+    <row r="10" spans="1:34" ht="29">
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:34" ht="28" thickBot="1">
-      <c r="S11" s="1"/>
+    </row>
+    <row r="11" spans="1:34" ht="30" thickBot="1">
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:34" ht="28" thickBot="1">
       <c r="A12" s="41">
@@ -1789,12 +1713,11 @@
       </c>
       <c r="J15" s="82"/>
       <c r="K15" s="79"/>
-      <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:34" ht="27">
+    <row r="16" spans="1:34" ht="29">
       <c r="A16" s="55"/>
       <c r="B16" s="53"/>
       <c r="C16" s="54">
@@ -1823,12 +1746,16 @@
       </c>
       <c r="J16" s="82"/>
       <c r="K16" s="79"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="28" thickBot="1">
+    <row r="17" spans="1:22" ht="30" thickBot="1">
       <c r="A17" s="56"/>
       <c r="B17" s="57"/>
       <c r="C17" s="57">
@@ -1857,14 +1784,16 @@
       </c>
       <c r="J17" s="83"/>
       <c r="K17" s="80"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="27">
+    <row r="18" spans="1:22" ht="29">
       <c r="A18" s="59">
         <v>1</v>
       </c>
@@ -1897,12 +1826,16 @@
       </c>
       <c r="J18" s="81"/>
       <c r="K18" s="84"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="27">
+    <row r="19" spans="1:22" ht="29">
       <c r="A19" s="55"/>
       <c r="B19" s="49"/>
       <c r="C19" s="50">
@@ -1931,12 +1864,16 @@
       </c>
       <c r="J19" s="82"/>
       <c r="K19" s="79"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="27">
+    <row r="20" spans="1:22" ht="29">
       <c r="A20" s="55"/>
       <c r="B20" s="49"/>
       <c r="C20" s="54">
@@ -1965,12 +1902,16 @@
       </c>
       <c r="J20" s="82"/>
       <c r="K20" s="79"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="27">
+    <row r="21" spans="1:22" ht="29">
       <c r="A21" s="55"/>
       <c r="B21" s="49"/>
       <c r="C21" s="54">
@@ -1999,12 +1940,16 @@
       </c>
       <c r="J21" s="82"/>
       <c r="K21" s="79"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="28" thickBot="1">
+    <row r="22" spans="1:22" ht="30" thickBot="1">
       <c r="A22" s="56"/>
       <c r="B22" s="57"/>
       <c r="C22" s="57">
@@ -2033,9 +1978,13 @@
       </c>
       <c r="J22" s="83"/>
       <c r="K22" s="80"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="147"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="27">
@@ -3837,7 +3786,7 @@
     </row>
     <row r="93" spans="1:18" ht="34">
       <c r="A93" s="171" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B93" s="172"/>
       <c r="C93" s="172"/>
@@ -3866,10 +3815,10 @@
         <v>8</v>
       </c>
       <c r="C95" s="172" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D95" s="172" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E95" s="173"/>
       <c r="F95" s="173"/>
@@ -4075,7 +4024,7 @@
     </row>
     <row r="107" spans="1:20" ht="32">
       <c r="A107" s="161" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B107" s="162">
         <v>-1479.3366410466199</v>
@@ -4098,22 +4047,22 @@
     </row>
     <row r="108" spans="1:20" ht="31">
       <c r="A108" s="163" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B108" s="163" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C108" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="D108" s="163" t="s">
-        <v>28</v>
-      </c>
       <c r="E108" s="163" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F108" s="163" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G108" s="160"/>
       <c r="H108" s="160"/>
